--- a/trunk/documentation/1 project-startup/configuration-management-plan/scm-repository-list.xlsx
+++ b/trunk/documentation/1 project-startup/configuration-management-plan/scm-repository-list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="40">
   <si>
     <t>Read / Wrtite</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -32,9 +32,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://{SCM_SERVER}/svn/sources/trunk</t>
-  </si>
-  <si>
     <t>Read / Wrtite</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -51,43 +48,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://{SCM_SERVER}/svn/sources/tag</t>
-  </si>
-  <si>
     <t>Branche 관리 (병합 후, 삭제 허용)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://{SCM_SERVER}/svn/sources/branches</t>
-  </si>
-  <si>
     <t>Project Root 경로</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://{SCM_SERVER}/svn/sources/</t>
-  </si>
-  <si>
-    <t>sources</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://{SCM_SERVER}/svn/documents/trunk</t>
-  </si>
-  <si>
     <t>Snapshot 관리 (변경 없음, 삭제 금지)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://{SCM_SERVER}/svn/documents/tag</t>
-  </si>
-  <si>
-    <t>https://{SCM_SERVER}/svn/documents/branches</t>
-  </si>
-  <si>
-    <t>https://{SCM_SERVER}/svn/documents/</t>
-  </si>
-  <si>
     <t>documents</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -116,23 +88,89 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Repository 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Permission</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Repository 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>source-code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Repository Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Repository Info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base Line 관리 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인 문서 관리 (작업 중인 Working 산출물 포함)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공용 문서 관리 (인수 대상 Deliverable 산출물 포함)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채택 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https:// &lt;scm server&gt;/svn/ &lt;project code&gt;/documents/public</t>
+  </si>
+  <si>
+    <t>https:// &lt;scm server&gt;/svn/ &lt;project code&gt;/documents/private</t>
+  </si>
+  <si>
+    <t>https:// &lt;scm server&gt;/svn/ &lt;project code&gt;/documents/</t>
+  </si>
+  <si>
+    <t>https:// &lt;scm server&gt;/svn/ &lt;project code&gt;/documents/branches</t>
+  </si>
+  <si>
+    <t>https:// &lt;scm server&gt;/svn/ &lt;project code&gt;/documents/tag</t>
+  </si>
+  <si>
+    <t>https:// &lt;scm server&gt;/svn/ &lt;project code&gt;/documents/trunk</t>
+  </si>
+  <si>
+    <t>https:// &lt;scm server&gt;/svn/ &lt;project code&gt;/source-code</t>
+  </si>
+  <si>
+    <t>https:// &lt;scm server&gt;/svn/ &lt;project code&gt;/source-code/branches</t>
+  </si>
+  <si>
+    <t>https:// &lt;scm server&gt;/svn/ &lt;project code&gt;/source-code/tag</t>
+  </si>
+  <si>
+    <t>https:// &lt;scm server&gt;/svn/ &lt;project code&gt;/source-code/trunk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,15 +181,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -178,7 +207,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -221,17 +250,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -276,11 +294,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -291,34 +306,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -617,247 +631,348 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A3" sqref="A3:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="9" t="s">
+      <c r="F1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="7"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="E3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="E4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="C8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="F8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="B9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="G9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="G10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A1:C1"/>
+  <mergeCells count="3">
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="https://76.2.20.51/svn/documents/"/>
-    <hyperlink ref="B4" r:id="rId2" display="https://76.2.20.51/svn/documents/branches"/>
-    <hyperlink ref="B5" r:id="rId3" display="https://76.2.20.51/svn/documents/tag"/>
-    <hyperlink ref="B6" r:id="rId4" display="https://76.2.20.51/svn/documents/trunk"/>
-    <hyperlink ref="B7" r:id="rId5" display="https://76.2.20.51/svn/documents/"/>
-    <hyperlink ref="B8" r:id="rId6" display="https://76.2.20.51/svn/documents/branches"/>
-    <hyperlink ref="B9" r:id="rId7" display="https://76.2.20.51/svn/documents/tag"/>
-    <hyperlink ref="B10" r:id="rId8" display="https://76.2.20.51/svn/documents/trunk"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>